--- a/Project documentation/Test  Project.xlsx
+++ b/Project documentation/Test  Project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - Universidad Nacional de Colombia\Documentos\NATIONAL UNIVERSITY OF  COLOMBIA\ELECTRONIC ENGINEERING(MZ)\8th SEMESTER (2023-2)MZ\Real Time Systems\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Developments\Sistemas en tiempo real\WS2812B-controller\Project documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6712647-AD0F-410C-804F-8DD2B4DCFEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C839D4D2-0A9F-429B-8184-B2C342538429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{624A649F-7049-4509-8B32-6E0715D9A52C}"/>
   </bookViews>
@@ -369,18 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -390,6 +378,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71197894-CC28-4D53-99F5-711E380C88CA}">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,64 +722,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="27" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="26"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="8">
@@ -963,7 +963,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       <c r="H18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="26" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="28"/>
+      <c r="K30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Project documentation/Test  Project.xlsx
+++ b/Project documentation/Test  Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Developments\Sistemas en tiempo real\WS2812B-controller\Project documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C839D4D2-0A9F-429B-8184-B2C342538429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7E6356-5042-4E33-94A8-F33D1ECE2093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{624A649F-7049-4509-8B32-6E0715D9A52C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Test Number</t>
   </si>
@@ -81,15 +81,9 @@
     <t>Validar la Presicicon del sensor de corriente con una carga  hasta 5A, las cuales se le va  ingresar de una funte de poder y medir con un  multimetro  para su vefificacion</t>
   </si>
   <si>
-    <t>El sensor mide 3.94 Amperios de los 4 amperios dado por la fuente de  poder  teniedo correclacion con la medidicon del multimetro de 3.97 A</t>
-  </si>
-  <si>
     <t>Juan E. Guevara</t>
   </si>
   <si>
-    <t>El sensor debe  medir correctamente y aguantar como minimo  4 A pero  sin presentar cambios a largo tiempo</t>
-  </si>
-  <si>
     <t>Comprobar  el Funcionamiento de la tira LED RBG.</t>
   </si>
   <si>
@@ -193,6 +187,18 @@
   </si>
   <si>
     <t>En la tira LED se ve el color verde  de color principal y los slider de Main cambian de posicion R a 0 , G a 255 y B a 0</t>
+  </si>
+  <si>
+    <t>El sensor debe  medir correctamente y aguantar como minimo  2A pero  sin presentar cambios a largo tiempo</t>
+  </si>
+  <si>
+    <t>El sensor mide 1.94 Amperios de los 4 amperios dado por la fuente de  poder  teniedo correclacion con la medidicon del multimetro de 1.97 A</t>
+  </si>
+  <si>
+    <t>Se debe generar el archivo bin y cargarlo por la page  y  actuliza el programa</t>
+  </si>
+  <si>
+    <t>El sistema genera el archivo bin y  se carga  cuando una nueva  actilizacion para la tira LED</t>
   </si>
 </sst>
 </file>
@@ -362,7 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,6 +383,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -707,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71197894-CC28-4D53-99F5-711E380C88CA}">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,10 +781,10 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="27"/>
@@ -802,7 +810,7 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -816,17 +824,17 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -837,20 +845,20 @@
         <v>45252</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -861,20 +869,20 @@
         <v>45254</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -885,20 +893,20 @@
         <v>45254</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -909,20 +917,20 @@
         <v>45254</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -933,38 +941,44 @@
         <v>45254</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="H12" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C13" s="14">
         <v>8</v>
       </c>
       <c r="D13" s="5">
         <v>45254</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="E13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="25" t="s">
-        <v>16</v>
+      <c r="J13" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -975,20 +989,20 @@
         <v>45256</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -999,20 +1013,20 @@
         <v>45256</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="H15" s="18" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="21" t="s">
-        <v>16</v>
+      <c r="J15" s="20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1026,20 +1040,20 @@
         <v>45256</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="H16" s="18" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="21" t="s">
-        <v>36</v>
+      <c r="J16" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="120" x14ac:dyDescent="0.25">
@@ -1050,20 +1064,20 @@
         <v>45256</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="21" t="s">
-        <v>16</v>
+      <c r="J17" s="20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="105" x14ac:dyDescent="0.25">
@@ -1074,19 +1088,19 @@
         <v>45256</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="H18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>16</v>
+      <c r="J18" s="25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="3:11" ht="60" x14ac:dyDescent="0.25">
@@ -1097,24 +1111,24 @@
         <v>45256</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="24"/>
+      <c r="K30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
